--- a/excel/s_buff.xlsx
+++ b/excel/s_buff.xlsx
@@ -2036,7 +2036,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>状态ID</t>
   </si>
@@ -2081,10 +2081,6 @@
   </si>
   <si>
     <t>AttributionLv</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
@@ -2100,10 +2096,6 @@
   </si>
   <si>
     <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attribution#{[]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2121,10 +2113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trigger#[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2178,6 +2166,82 @@
   </si>
   <si>
     <t>8,0,0</t>
+  </si>
+  <si>
+    <t>AttributionType:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:2;ValueType:0;Value:500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:4;ValueType:0;Value:500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:7;ValueType:0;Value:500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:26;ValueType:0;Value:500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:30;ValueType:1;Value:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribution#[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger#[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:39;ValueType:2;Value:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:39;ValueType:2;Value:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:39;ValueType:2;Value:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:39;ValueType:2;Value:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:39;ValueType:2;Value:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:39;ValueType:2;Value:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2552,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2603,33 +2667,33 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -2641,10 +2705,10 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="71.25" customHeight="1">
@@ -2679,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2717,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2755,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2793,10 +2857,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2831,10 +2895,10 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2869,10 +2933,10 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2907,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
         <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2945,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
         <v>31</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2983,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
         <v>31</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3021,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
         <v>31</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3059,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3097,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
         <v>31</v>
-      </c>
-      <c r="L14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3135,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3173,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
         <v>31</v>
-      </c>
-      <c r="L16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3211,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3249,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3287,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3325,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3363,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
         <v>33</v>
-      </c>
-      <c r="L21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3401,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3439,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3477,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3515,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3553,10 +3617,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3591,10 +3655,624 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>150</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>150</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>150</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
         <v>42</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>150</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>58</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>59</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>59</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f>A38</f>
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C43" si="0">A39</f>
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>63</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>64</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>65</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>150</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/s_buff.xlsx
+++ b/excel/s_buff.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="buff" sheetId="1" r:id="rId1"/>
+    <sheet name="buffConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -2036,7 +2036,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>状态ID</t>
   </si>
@@ -2241,6 +2241,70 @@
   </si>
   <si>
     <t>AttributionType:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:11;ValueType:0;Value:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:30;ValueType:1;Value:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:7;ValueType:0;Value:1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:40;ValueType:1;Value:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AttributionType:39;ValueType:2;Value:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AttributionType:12;ValueType:0;Value:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:39;ValueType:2;Value:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:8;ValueType:0;Value:-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributionType:32;ValueType:2;Value:12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2248,7 +2312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2291,6 +2355,20 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2616,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4275,6 +4353,386 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>66</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>66</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>150</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>67</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>67</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>90</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>68</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>68</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>61</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>69</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>69</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>62</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>70</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>70</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>68</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>71</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>71</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>150</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>72</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>72</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>73</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>73</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>150</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>74</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>74</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>90</v>
+      </c>
+      <c r="H52">
+        <v>90</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>66</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>75</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
